--- a/src/test/resources/Douglas.xlsx
+++ b/src/test/resources/Douglas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATION_WORKSPACE\PENTA_GRP\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5753E828-4845-40AF-8FD3-3EBA4A016440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4084130-F2D7-4749-86D7-79D8B6E4FF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="4260" windowWidth="15375" windowHeight="6210" xr2:uid="{1846B57F-36E2-4888-8918-C9F397F283D6}"/>
+    <workbookView xWindow="6225" yWindow="1680" windowWidth="15375" windowHeight="6210" xr2:uid="{1846B57F-36E2-4888-8918-C9F397F283D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Douglas" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sortieren nach</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Filter text</t>
+  </si>
+  <si>
+    <t>Deodorants</t>
+  </si>
+  <si>
+    <t>Deodorants option</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4C0186-DAB5-4690-A4D3-998BB3F47640}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +471,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
